--- a/每日计划.xlsx
+++ b/每日计划.xlsx
@@ -14,39 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>题目</t>
+  </si>
+  <si>
+    <t>自己的解法</t>
+  </si>
   <si>
     <t>算法</t>
   </si>
   <si>
-    <t>八股</t>
-  </si>
-  <si>
-    <t>开题报告</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>计算a/b，使用快速乘</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>二进制求和，使用StringBuilder保存二进制数尾部求和结果，然后reverse即可</t>
-  </si>
-  <si>
-    <t>sql,where ... and</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
+    <t>计算a/b</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速乘</t>
+    </r>
+  </si>
+  <si>
+    <t>二进制求和</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存二进制数尾部求和结果，然后reverse即可</t>
+    </r>
+  </si>
+  <si>
+    <t>简单sql</t>
+  </si>
+  <si>
+    <t>找只出现一次的元素</t>
+  </si>
+  <si>
+    <r>
+      <t>想到的方法为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先排序，后遍历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但忘记快排</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>将元素与出现次数存入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，但忘记HashMap遍历方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个整型都是32位，将数组中所有元素的每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二进制位相加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，求得的结果应该是能被三整除的，若不能整除，则说明需要输出的数在该二进制位置上为1</t>
+    </r>
   </si>
   <si>
     <t>星期六</t>
@@ -65,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,36 +179,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -249,6 +328,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,175 +345,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,97 +656,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,64 +761,49 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1076,83 +1153,117 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="15.625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" customHeight="1" spans="2:4">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A2" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="48" customHeight="1" spans="2:4">
-      <c r="B3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="3:5">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:5">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
+    <row r="7" s="1" customFormat="1" customHeight="1"/>
+    <row r="8" s="1" customFormat="1" customHeight="1"/>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
